--- a/biology/Histoire de la zoologie et de la botanique/George_Cansdale/George_Cansdale.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Cansdale/George_Cansdale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Soper Cansdale (né le 29 novembre 1909 à Brentwoood, dans l'Essex, mort le 24 août 1993 à Great Chesterford, dans l'Essex), zoologiste de nationalité britannique, fut le superintendant du Zoo de Londres (1948-1953).
 </t>
@@ -511,7 +523,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">George Cansdale travailla au Service forestier colonial de la Côte-de-l'Or, en Afrique de l'Ouest, de 1934 à 1948.
 Il fut recruté par la Société Zoologique de Londres comme superintendant en mai 1948 pour une durée de cinq ans. À ce titre, Cansdale dirigea le Zoo de Londres de 1948 à 1953.
@@ -546,7 +560,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Animals of West Africa (1946)
 Animals and Man (1952)
@@ -585,7 +601,9 @@
           <t>Séries télévisées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Popular Animal Fallacies
 Heads, Tails and Feet
